--- a/PoulinHaddad.xlsx
+++ b/PoulinHaddad.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
   <si>
     <t>Adipose</t>
   </si>
@@ -251,12 +251,18 @@
   </si>
   <si>
     <t>VtKp</t>
+  </si>
+  <si>
+    <t>Vss (eq.7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,30 +649,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1138,7 +1149,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,20 +1161,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2111,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,77 +2133,80 @@
     <col min="2" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.5703125" customWidth="1"/>
+    <col min="7" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="8"/>
       <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AL2" s="5" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AM2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2211,130 +2225,130 @@
       <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>9</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>10</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>11</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>10</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>11</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>1</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>4</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>8</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>10</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2353,168 +2367,173 @@
       <c r="F5">
         <v>3.07</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f>_xll.Vss('Table 2'!C4,'Table 2'!M4,'Table 2'!N4,'Table 2'!E4)</f>
         <v>8.443028280940851</v>
       </c>
-      <c r="J5">
-        <f>_xll.fut(J$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.8916118388628226E-7</v>
-      </c>
+      <c r="I5" s="6">
+        <f>SUM(AM5:AY5)+'Table 1'!$G$18</f>
+        <v>8.5488083635139915</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5">
         <f>_xll.fut(K$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>7.9573438446239715E-7</v>
+        <v>2.8916118388628226E-7</v>
       </c>
       <c r="L5">
         <f>_xll.fut(L$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>8.6594596710043114E-7</v>
+        <v>7.9573438446239715E-7</v>
       </c>
       <c r="M5">
         <f>_xll.fut(M$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>1.0904503099184834E-6</v>
+        <v>8.6594596710043114E-7</v>
       </c>
       <c r="N5">
         <f>_xll.fut(N$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>3.4637768497037145E-6</v>
+        <v>1.0904503099184834E-6</v>
       </c>
       <c r="O5">
         <f>_xll.fut(O$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.2647793916109502E-6</v>
+        <v>3.4637768497037145E-6</v>
       </c>
       <c r="P5">
         <f>_xll.fut(P$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>1.3694024807206881E-6</v>
+        <v>2.2647793916109502E-6</v>
       </c>
       <c r="Q5">
         <f>_xll.fut(Q$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>9.497407955074572E-6</v>
+        <v>1.3694024807206881E-6</v>
       </c>
       <c r="R5">
         <f>_xll.fut(R$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.4535109566424697E-6</v>
+        <v>9.497407955074572E-6</v>
       </c>
       <c r="S5">
         <f>_xll.fut(S$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>1.8401341543006336E-6</v>
+        <v>2.4535109566424697E-6</v>
       </c>
       <c r="T5">
         <f>_xll.fut(T$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.18089866974443E-6</v>
+        <v>1.8401341543006336E-6</v>
       </c>
       <c r="U5">
         <f>_xll.fut(U$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.9442115154248853E-6</v>
+        <v>2.18089866974443E-6</v>
       </c>
       <c r="V5">
         <f>_xll.fut(V$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
+        <v>2.9442115154248853E-6</v>
+      </c>
+      <c r="W5">
+        <f>_xll.fut(W$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
         <v>2.6765575564954962E-6</v>
       </c>
-      <c r="X5">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>27.895476398030521</v>
-      </c>
       <c r="Y5">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
+        <f>'Table 2'!$R4/'Table 3'!K5</f>
+        <v>27.895476398030524</v>
+      </c>
+      <c r="Z5">
+        <f>'Table 2'!$R4/'Table 3'!L5</f>
         <v>10.136911434053442</v>
       </c>
-      <c r="Z5">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>9.3150026523431269</v>
-      </c>
       <c r="AA5">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>7.3972091226507564</v>
+        <f>'Table 2'!$R4/'Table 3'!M5</f>
+        <v>9.3150026523431286</v>
       </c>
       <c r="AB5">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.3287553818648354</v>
+        <f>'Table 2'!$R4/'Table 3'!N5</f>
+        <v>7.3972091226507573</v>
       </c>
       <c r="AC5">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>3.5616223859175773</v>
+        <f>'Table 2'!$R4/'Table 3'!O5</f>
+        <v>2.3287553818648359</v>
       </c>
       <c r="AD5">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>5.8903712340883372</v>
+        <f>'Table 2'!$R4/'Table 3'!P5</f>
+        <v>3.5616223859175768</v>
       </c>
       <c r="AE5">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>0.84931478341060851</v>
+        <f>'Table 2'!$R4/'Table 3'!Q5</f>
+        <v>5.8903712340883381</v>
       </c>
       <c r="AF5">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
+        <f>'Table 2'!$R4/'Table 3'!R5</f>
+        <v>0.84931478341060862</v>
+      </c>
+      <c r="AG5">
+        <f>'Table 2'!$R4/'Table 3'!S5</f>
         <v>3.2876515014079013</v>
       </c>
-      <c r="AG5">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
+      <c r="AH5">
+        <f>'Table 2'!$R4/'Table 3'!T5</f>
         <v>4.3835331035372507</v>
       </c>
-      <c r="AH5">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>3.6986078685038599</v>
-      </c>
       <c r="AI5">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
-        <v>2.7397111036576756</v>
+        <f>'Table 2'!$R4/'Table 3'!U5</f>
+        <v>3.6986078685038604</v>
       </c>
       <c r="AJ5">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C4,'Table 2'!$M4,'Table 2'!$N4,'Table 2'!$E4)</f>
+        <f>'Table 2'!$R4/'Table 3'!V5</f>
+        <v>2.739711103657676</v>
+      </c>
+      <c r="AK5">
+        <f>'Table 2'!$R4/'Table 3'!W5</f>
         <v>3.0136803749095558</v>
-      </c>
-      <c r="AL5">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X5</f>
-        <v>4.1564259833065478</v>
       </c>
       <c r="AM5">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y5</f>
-        <v>1.3177984864269474</v>
+        <v>4.1564259833065478</v>
       </c>
       <c r="AN5">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z5</f>
-        <v>0.18630005304686253</v>
+        <v>1.3177984864269474</v>
       </c>
       <c r="AO5">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA5</f>
-        <v>0.19232743718891965</v>
+        <v>0.18630005304686256</v>
       </c>
       <c r="AP5">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB5</f>
-        <v>1.0246523680205276E-2</v>
+        <v>0.19232743718891968</v>
       </c>
       <c r="AQ5">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC5</f>
-        <v>1.5671138498037342E-2</v>
+        <v>1.0246523680205278E-2</v>
       </c>
       <c r="AR5">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD5</f>
-        <v>0.21205336442718012</v>
+        <v>1.5671138498037338E-2</v>
       </c>
       <c r="AS5">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE5</f>
-        <v>1.104109218433791E-2</v>
+        <v>0.21205336442718015</v>
       </c>
       <c r="AT5">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF5</f>
-        <v>1.5912233266814242</v>
+        <v>1.1041092184337912E-2</v>
       </c>
       <c r="AU5">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG5</f>
-        <v>0.35068264828298007</v>
+        <v>1.5912233266814242</v>
       </c>
       <c r="AV5">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH5</f>
-        <v>1.0725962818661193E-2</v>
+        <v>0.35068264828298007</v>
       </c>
       <c r="AW5">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI5</f>
-        <v>2.7397111036576755E-4</v>
+        <v>1.0725962818661195E-2</v>
       </c>
       <c r="AX5">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ5</f>
+        <v>2.739711103657676E-4</v>
+      </c>
+      <c r="AY5">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK5</f>
         <v>0.44903837586152379</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2533,168 +2552,173 @@
       <c r="F6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <f>_xll.Vss('Table 2'!C5,'Table 2'!M5,'Table 2'!N5,'Table 2'!E5)</f>
         <v>8.3216422506117365</v>
       </c>
-      <c r="J6">
-        <f>_xll.fut(J$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>4.0180005034905532E-7</v>
-      </c>
+      <c r="I6" s="6">
+        <f>SUM(AM6:AY6)+'Table 1'!$G$18</f>
+        <v>8.4274220751837259</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6">
         <f>_xll.fut(K$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>1.0734160149110682E-6</v>
+        <v>4.0180005034905532E-7</v>
       </c>
       <c r="L6">
         <f>_xll.fut(L$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>1.1681286926172827E-6</v>
+        <v>1.0734160149110682E-6</v>
       </c>
       <c r="M6">
         <f>_xll.fut(M$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>1.4709765679837676E-6</v>
+        <v>1.1681286926172827E-6</v>
       </c>
       <c r="N6">
         <f>_xll.fut(N$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>4.6725019985533874E-6</v>
+        <v>1.4709765679837676E-6</v>
       </c>
       <c r="O6">
         <f>_xll.fut(O$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>3.0551015015065821E-6</v>
+        <v>4.6725019985533874E-6</v>
       </c>
       <c r="P6">
         <f>_xll.fut(P$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>1.8472724734083341E-6</v>
+        <v>3.0551015015065821E-6</v>
       </c>
       <c r="Q6">
         <f>_xll.fut(Q$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>1.2811617692792626E-5</v>
+        <v>1.8472724734083341E-6</v>
       </c>
       <c r="R6">
         <f>_xll.fut(R$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>3.3096932006105174E-6</v>
+        <v>1.2811617692792626E-5</v>
       </c>
       <c r="S6">
         <f>_xll.fut(S$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>2.4822716051860603E-6</v>
+        <v>3.3096932006105174E-6</v>
       </c>
       <c r="T6">
         <f>_xll.fut(T$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>2.9419495873856314E-6</v>
+        <v>2.4822716051860603E-6</v>
       </c>
       <c r="U6">
         <f>_xll.fut(U$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>3.9716288699913079E-6</v>
+        <v>2.9419495873856314E-6</v>
       </c>
       <c r="V6">
         <f>_xll.fut(V$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+        <v>3.9716288699913079E-6</v>
+      </c>
+      <c r="W6">
+        <f>_xll.fut(W$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
         <v>3.6105746722545298E-6</v>
       </c>
-      <c r="X6">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+      <c r="Y6">
+        <f>'Table 2'!$R5/'Table 3'!K6</f>
         <v>27.080870253533387</v>
       </c>
-      <c r="Y6">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+      <c r="Z6">
+        <f>'Table 2'!$R5/'Table 3'!L6</f>
         <v>10.1368853084118</v>
       </c>
-      <c r="Z6">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+      <c r="AA6">
+        <f>'Table 2'!$R5/'Table 3'!M6</f>
         <v>9.314979676585132</v>
       </c>
-      <c r="AA6">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>7.397191272924494</v>
-      </c>
       <c r="AB6">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>2.3287512845868763</v>
+        <f>'Table 2'!$R5/'Table 3'!N6</f>
+        <v>7.3971912729244949</v>
       </c>
       <c r="AC6">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>3.5616149008470206</v>
+        <f>'Table 2'!$R5/'Table 3'!O6</f>
+        <v>2.3287512845868767</v>
       </c>
       <c r="AD6">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+        <f>'Table 2'!$R5/'Table 3'!P6</f>
+        <v>3.561614900847021</v>
+      </c>
+      <c r="AE6">
+        <f>'Table 2'!$R5/'Table 3'!Q6</f>
         <v>5.8903573717469211</v>
       </c>
-      <c r="AE6">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>0.84931468392842202</v>
-      </c>
       <c r="AF6">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+        <f>'Table 2'!$R5/'Table 3'!R6</f>
+        <v>0.84931468392842213</v>
+      </c>
+      <c r="AG6">
+        <f>'Table 2'!$R5/'Table 3'!S6</f>
         <v>3.2876446159295929</v>
       </c>
-      <c r="AG6">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+      <c r="AH6">
+        <f>'Table 2'!$R5/'Table 3'!T6</f>
         <v>4.3835231441364977</v>
       </c>
-      <c r="AH6">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+      <c r="AI6">
+        <f>'Table 2'!$R5/'Table 3'!U6</f>
         <v>3.6986000977112097</v>
       </c>
-      <c r="AI6">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
-        <v>2.7397058958808911</v>
-      </c>
       <c r="AJ6">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C5,'Table 2'!$M5,'Table 2'!$N5,'Table 2'!$E5)</f>
+        <f>'Table 2'!$R5/'Table 3'!V6</f>
+        <v>2.7397058958808915</v>
+      </c>
+      <c r="AK6">
+        <f>'Table 2'!$R5/'Table 3'!W6</f>
         <v>3.0136740045793129</v>
-      </c>
-      <c r="AL6">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X6</f>
-        <v>4.0350496677764749</v>
       </c>
       <c r="AM6">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y6</f>
-        <v>1.317795090093534</v>
+        <v>4.0350496677764749</v>
       </c>
       <c r="AN6">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z6</f>
-        <v>0.18629959353170264</v>
+        <v>1.317795090093534</v>
       </c>
       <c r="AO6">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA6</f>
-        <v>0.19232697309603683</v>
+        <v>0.18629959353170264</v>
       </c>
       <c r="AP6">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB6</f>
-        <v>1.0246505652182256E-2</v>
+        <v>0.19232697309603686</v>
       </c>
       <c r="AQ6">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC6</f>
-        <v>1.5671105563726893E-2</v>
+        <v>1.0246505652182259E-2</v>
       </c>
       <c r="AR6">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD6</f>
-        <v>0.21205286538288914</v>
+        <v>1.5671105563726893E-2</v>
       </c>
       <c r="AS6">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE6</f>
-        <v>1.1041090891069485E-2</v>
+        <v>0.21205286538288914</v>
       </c>
       <c r="AT6">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF6</f>
-        <v>1.591219994109923</v>
+        <v>1.1041090891069487E-2</v>
       </c>
       <c r="AU6">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG6</f>
-        <v>0.3506818515309198</v>
+        <v>1.591219994109923</v>
       </c>
       <c r="AV6">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH6</f>
-        <v>1.0725940283362507E-2</v>
+        <v>0.3506818515309198</v>
       </c>
       <c r="AW6">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI6</f>
-        <v>2.7397058958808913E-4</v>
+        <v>1.0725940283362507E-2</v>
       </c>
       <c r="AX6">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ6</f>
+        <v>2.7397058958808919E-4</v>
+      </c>
+      <c r="AY6">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK6</f>
         <v>0.44903742668231761</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2713,168 +2737,173 @@
       <c r="F7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f>_xll.Vss('Table 2'!C6,'Table 2'!M6,'Table 2'!N6,'Table 2'!E6)</f>
         <v>8.8815847405004664</v>
       </c>
-      <c r="J7">
-        <f>_xll.fut(J$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>9.4968593661904474E-8</v>
-      </c>
+      <c r="I7" s="6">
+        <f>SUM(AM7:AY7)+'Table 1'!$G$18</f>
+        <v>8.9873652939771276</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7">
         <f>_xll.fut(K$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>2.889137583166533E-7</v>
+        <v>9.4968593661904474E-8</v>
       </c>
       <c r="L7">
         <f>_xll.fut(L$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>3.1440611252872352E-7</v>
+        <v>2.889137583166533E-7</v>
       </c>
       <c r="M7">
         <f>_xll.fut(M$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>3.9591878633205968E-7</v>
+        <v>3.1440611252872352E-7</v>
       </c>
       <c r="N7">
         <f>_xll.fut(N$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>1.257623524868309E-6</v>
+        <v>3.9591878633205968E-7</v>
       </c>
       <c r="O7">
         <f>_xll.fut(O$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>8.2229259746120328E-7</v>
+        <v>1.257623524868309E-6</v>
       </c>
       <c r="P7">
         <f>_xll.fut(P$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>4.9720030546874128E-7</v>
+        <v>8.2229259746120328E-7</v>
       </c>
       <c r="Q7">
         <f>_xll.fut(Q$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>3.4483166758925454E-6</v>
+        <v>4.9720030546874128E-7</v>
       </c>
       <c r="R7">
         <f>_xll.fut(R$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>8.9081697386827501E-7</v>
+        <v>3.4483166758925454E-6</v>
       </c>
       <c r="S7">
         <f>_xll.fut(S$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>6.6811285389820744E-7</v>
+        <v>8.9081697386827501E-7</v>
       </c>
       <c r="T7">
         <f>_xll.fut(T$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>7.9183731559143877E-7</v>
+        <v>6.6811285389820744E-7</v>
       </c>
       <c r="U7">
         <f>_xll.fut(U$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>1.0689801534298895E-6</v>
+        <v>7.9183731559143877E-7</v>
       </c>
       <c r="V7">
         <f>_xll.fut(V$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+        <v>1.0689801534298895E-6</v>
+      </c>
+      <c r="W7">
+        <f>_xll.fut(W$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
         <v>9.7180035480394202E-7</v>
       </c>
-      <c r="X7">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>30.838689338401267</v>
-      </c>
       <c r="Y7">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+        <f>'Table 2'!$R6/'Table 3'!K7</f>
+        <v>30.838689338401263</v>
+      </c>
+      <c r="Z7">
+        <f>'Table 2'!$R6/'Table 3'!L7</f>
         <v>10.136959118556181</v>
       </c>
-      <c r="Z7">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AA7">
+        <f>'Table 2'!$R6/'Table 3'!M7</f>
         <v>9.3150445876804469</v>
       </c>
-      <c r="AA7">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AB7">
+        <f>'Table 2'!$R6/'Table 3'!N7</f>
         <v>7.397241701958567</v>
       </c>
-      <c r="AB7">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AC7">
+        <f>'Table 2'!$R6/'Table 3'!O7</f>
         <v>2.3287628602136818</v>
       </c>
-      <c r="AC7">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AD7">
+        <f>'Table 2'!$R6/'Table 3'!P7</f>
         <v>3.5616360476630891</v>
       </c>
-      <c r="AD7">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>5.8903965356241343</v>
-      </c>
       <c r="AE7">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
-        <v>0.84931496498542525</v>
+        <f>'Table 2'!$R6/'Table 3'!Q7</f>
+        <v>5.8903965356241352</v>
       </c>
       <c r="AF7">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+        <f>'Table 2'!$R6/'Table 3'!R7</f>
+        <v>0.84931496498542536</v>
+      </c>
+      <c r="AG7">
+        <f>'Table 2'!$R6/'Table 3'!S7</f>
         <v>3.2876640687780641</v>
       </c>
-      <c r="AG7">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AH7">
+        <f>'Table 2'!$R6/'Table 3'!T7</f>
         <v>4.3835512814284936</v>
       </c>
-      <c r="AH7">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AI7">
+        <f>'Table 2'!$R6/'Table 3'!U7</f>
         <v>3.6986220517491359</v>
       </c>
-      <c r="AI7">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AJ7">
+        <f>'Table 2'!$R6/'Table 3'!V7</f>
         <v>2.7397206088881974</v>
       </c>
-      <c r="AJ7">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C6,'Table 2'!$M6,'Table 2'!$N6,'Table 2'!$E6)</f>
+      <c r="AK7">
+        <f>'Table 2'!$R6/'Table 3'!W7</f>
         <v>3.0136920020318305</v>
-      </c>
-      <c r="AL7">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X7</f>
-        <v>4.5949647114217882</v>
       </c>
       <c r="AM7">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y7</f>
-        <v>1.3178046854123036</v>
+        <v>4.5949647114217882</v>
       </c>
       <c r="AN7">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z7</f>
-        <v>0.18630089175360895</v>
+        <v>1.3178046854123036</v>
       </c>
       <c r="AO7">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA7</f>
-        <v>0.19232828425092274</v>
+        <v>0.18630089175360895</v>
       </c>
       <c r="AP7">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB7</f>
-        <v>1.0246556584940201E-2</v>
+        <v>0.19232828425092274</v>
       </c>
       <c r="AQ7">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC7</f>
-        <v>1.5671198609717593E-2</v>
+        <v>1.0246556584940201E-2</v>
       </c>
       <c r="AR7">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD7</f>
-        <v>0.21205427528246881</v>
+        <v>1.5671198609717593E-2</v>
       </c>
       <c r="AS7">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE7</f>
-        <v>1.1041094544810528E-2</v>
+        <v>0.21205427528246884</v>
       </c>
       <c r="AT7">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF7</f>
-        <v>1.591229409288583</v>
+        <v>1.104109454481053E-2</v>
       </c>
       <c r="AU7">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG7</f>
-        <v>0.35068410251427951</v>
+        <v>1.591229409288583</v>
       </c>
       <c r="AV7">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH7</f>
-        <v>1.0726003950072494E-2</v>
+        <v>0.35068410251427951</v>
       </c>
       <c r="AW7">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI7</f>
-        <v>2.7397206088881974E-4</v>
+        <v>1.0726003950072494E-2</v>
       </c>
       <c r="AX7">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ7</f>
+        <v>2.7397206088881974E-4</v>
+      </c>
+      <c r="AY7">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK7</f>
         <v>0.44904010830274271</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2893,173 +2922,178 @@
       <c r="F8">
         <v>8.94</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <f>_xll.Vss('Table 2'!C7,'Table 2'!M7,'Table 2'!N7,'Table 2'!E7)</f>
         <v>8.2037936040230441</v>
       </c>
-      <c r="J8">
-        <f>_xll.fut(J$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>5.5831587500155749E-7</v>
-      </c>
+      <c r="I8" s="6">
+        <f>SUM(AM8:AY8)+'Table 1'!$G$18</f>
+        <v>8.3095730805632684</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8">
         <f>_xll.fut(K$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>1.44799811761694E-6</v>
+        <v>5.5831587500155749E-7</v>
       </c>
       <c r="L8">
         <f>_xll.fut(L$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>1.5757617474110048E-6</v>
+        <v>1.44799811761694E-6</v>
       </c>
       <c r="M8">
         <f>_xll.fut(M$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>1.9842920172595042E-6</v>
+        <v>1.5757617474110048E-6</v>
       </c>
       <c r="N8">
         <f>_xll.fut(N$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>6.3030237486149237E-6</v>
+        <v>1.9842920172595042E-6</v>
       </c>
       <c r="O8">
         <f>_xll.fut(O$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>4.1212151888721687E-6</v>
+        <v>6.3030237486149237E-6</v>
       </c>
       <c r="P8">
         <f>_xll.fut(P$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>2.4919008280235376E-6</v>
+        <v>4.1212151888721687E-6</v>
       </c>
       <c r="Q8">
         <f>_xll.fut(Q$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>1.72823364664358E-5</v>
+        <v>2.4919008280235376E-6</v>
       </c>
       <c r="R8">
         <f>_xll.fut(R$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>4.4646496192801825E-6</v>
+        <v>1.72823364664358E-5</v>
       </c>
       <c r="S8">
         <f>_xll.fut(S$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>3.3484903165511104E-6</v>
+        <v>4.4646496192801825E-6</v>
       </c>
       <c r="T8">
         <f>_xll.fut(T$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>3.9685775771692269E-6</v>
+        <v>3.3484903165511104E-6</v>
       </c>
       <c r="U8">
         <f>_xll.fut(U$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>5.3575741372859776E-6</v>
+        <v>3.9685775771692269E-6</v>
       </c>
       <c r="V8">
         <f>_xll.fut(V$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+        <v>5.3575741372859776E-6</v>
+      </c>
+      <c r="W8">
+        <f>_xll.fut(W$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
         <v>4.8705273516056099E-6</v>
       </c>
-      <c r="X8">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>26.290027691328323</v>
-      </c>
       <c r="Y8">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+        <f>'Table 2'!$R7/'Table 3'!K8</f>
+        <v>26.290027691328326</v>
+      </c>
+      <c r="Z8">
+        <f>'Table 2'!$R7/'Table 3'!L8</f>
         <v>10.136850066114638</v>
       </c>
-      <c r="Z8">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+      <c r="AA8">
+        <f>'Table 2'!$R7/'Table 3'!M8</f>
         <v>9.3149486833371267</v>
       </c>
-      <c r="AA8">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+      <c r="AB8">
+        <f>'Table 2'!$R7/'Table 3'!N8</f>
         <v>7.3971671944591382</v>
       </c>
-      <c r="AB8">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+      <c r="AC8">
+        <f>'Table 2'!$R7/'Table 3'!O8</f>
         <v>2.328745757546073</v>
       </c>
-      <c r="AC8">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+      <c r="AD8">
+        <f>'Table 2'!$R7/'Table 3'!P8</f>
         <v>3.561604803828756</v>
       </c>
-      <c r="AD8">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>5.8903386720815778</v>
-      </c>
       <c r="AE8">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>0.84931454973149678</v>
+        <f>'Table 2'!$R7/'Table 3'!Q8</f>
+        <v>5.8903386720815787</v>
       </c>
       <c r="AF8">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>3.2876353277338808</v>
+        <f>'Table 2'!$R7/'Table 3'!R8</f>
+        <v>0.84931454973149689</v>
       </c>
       <c r="AG8">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
+        <f>'Table 2'!$R7/'Table 3'!S8</f>
+        <v>3.2876353277338812</v>
+      </c>
+      <c r="AH8">
+        <f>'Table 2'!$R7/'Table 3'!T8</f>
         <v>4.3835097093598261</v>
       </c>
-      <c r="AH8">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>3.6985896152668927</v>
-      </c>
       <c r="AI8">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>2.7396988708278989</v>
+        <f>'Table 2'!$R7/'Table 3'!U8</f>
+        <v>3.6985896152668931</v>
       </c>
       <c r="AJ8">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C7,'Table 2'!$M7,'Table 2'!$N7,'Table 2'!$E7)</f>
-        <v>3.0136654112948111</v>
-      </c>
-      <c r="AL8">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X8</f>
-        <v>3.9172141260079201</v>
+        <f>'Table 2'!$R7/'Table 3'!V8</f>
+        <v>2.7396988708278993</v>
+      </c>
+      <c r="AK8">
+        <f>'Table 2'!$R7/'Table 3'!W8</f>
+        <v>3.0136654112948116</v>
       </c>
       <c r="AM8">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y8</f>
-        <v>1.3177905085949031</v>
+        <v>3.9172141260079205</v>
       </c>
       <c r="AN8">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z8</f>
-        <v>0.18629897366674253</v>
+        <v>1.3177905085949031</v>
       </c>
       <c r="AO8">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA8</f>
-        <v>0.1923263470559376</v>
+        <v>0.18629897366674253</v>
       </c>
       <c r="AP8">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB8</f>
-        <v>1.0246481333202722E-2</v>
+        <v>0.1923263470559376</v>
       </c>
       <c r="AQ8">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC8</f>
-        <v>1.5671061136846527E-2</v>
+        <v>1.0246481333202722E-2</v>
       </c>
       <c r="AR8">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD8</f>
-        <v>0.21205219219493679</v>
+        <v>1.5671061136846527E-2</v>
       </c>
       <c r="AS8">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE8</f>
-        <v>1.1041089146509458E-2</v>
+        <v>0.21205219219493682</v>
       </c>
       <c r="AT8">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF8</f>
-        <v>1.5912154986231983</v>
+        <v>1.104108914650946E-2</v>
       </c>
       <c r="AU8">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG8</f>
-        <v>0.35068077674878612</v>
+        <v>1.5912154986231986</v>
       </c>
       <c r="AV8">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH8</f>
-        <v>1.0725909884273988E-2</v>
+        <v>0.35068077674878612</v>
       </c>
       <c r="AW8">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI8</f>
-        <v>2.7396988708278992E-4</v>
+        <v>1.072590988427399E-2</v>
       </c>
       <c r="AX8">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ8</f>
-        <v>0.44903614628292682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+        <v>2.7396988708278992E-4</v>
+      </c>
+      <c r="AY8">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK8</f>
+        <v>0.44903614628292693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3078,168 +3112,173 @@
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <f>_xll.Vss('Table 2'!C9,'Table 2'!M9,'Table 2'!N9,'Table 2'!E9)</f>
         <v>7.2854824402202745</v>
       </c>
-      <c r="J10">
-        <f>_xll.fut(J$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>1.0787651764587051E-5</v>
-      </c>
+      <c r="I10" s="6">
+        <f>SUM(AM10:AY10)+'Table 1'!$G$18</f>
+        <v>7.3912433630904779</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10">
         <f>_xll.fut(K$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>2.1428003115447684E-5</v>
+        <v>1.0784399180898531E-5</v>
       </c>
       <c r="L10">
         <f>_xll.fut(L$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>2.3318509992897159E-5</v>
+        <v>2.1421542360602071E-5</v>
       </c>
       <c r="M10">
         <f>_xll.fut(M$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>2.9363928399343964E-5</v>
+        <v>2.3311479231532351E-5</v>
       </c>
       <c r="N10">
         <f>_xll.fut(N$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>9.326895072206355E-5</v>
+        <v>2.9355074884545121E-5</v>
       </c>
       <c r="O10">
         <f>_xll.fut(O$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>6.0985154850484729E-5</v>
+        <v>9.3240829211063374E-5</v>
       </c>
       <c r="P10">
         <f>_xll.fut(P$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>3.6875461289207551E-5</v>
+        <v>6.09667672232015E-5</v>
       </c>
       <c r="Q10">
         <f>_xll.fut(Q$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>2.557050411979757E-4</v>
+        <v>3.6864342972959188E-5</v>
       </c>
       <c r="R10">
         <f>_xll.fut(R$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>6.6067214154431672E-5</v>
+        <v>2.5562794359933026E-4</v>
       </c>
       <c r="S10">
         <f>_xll.fut(S$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>4.9551089909085989E-5</v>
+        <v>6.6047294236010691E-5</v>
       </c>
       <c r="T10">
         <f>_xll.fut(T$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>5.8726442758658472E-5</v>
+        <v>4.9536149765456616E-5</v>
       </c>
       <c r="U10">
         <f>_xll.fut(U$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>7.9279473248408206E-5</v>
+        <v>5.870873615540784E-5</v>
       </c>
       <c r="V10">
         <f>_xll.fut(V$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>7.207343275235538E-5</v>
-      </c>
-      <c r="X10">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+        <v>7.9255569703211404E-5</v>
+      </c>
+      <c r="W10">
+        <f>_xll.fut(W$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+        <v>7.2051701899630288E-5</v>
+      </c>
+      <c r="Y10">
+        <f>'Table 2'!$R9/'Table 3'!K10</f>
         <v>20.13155414461658</v>
       </c>
-      <c r="Y10">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+      <c r="Z10">
+        <f>'Table 2'!$R9/'Table 3'!L10</f>
         <v>10.134971253363826</v>
       </c>
-      <c r="Z10">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+      <c r="AA10">
+        <f>'Table 2'!$R9/'Table 3'!M10</f>
         <v>9.3132964180903333</v>
       </c>
-      <c r="AA10">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+      <c r="AB10">
+        <f>'Table 2'!$R9/'Table 3'!N10</f>
         <v>7.3958835697509988</v>
       </c>
-      <c r="AB10">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+      <c r="AC10">
+        <f>'Table 2'!$R9/'Table 3'!O10</f>
         <v>2.3284511502570049</v>
       </c>
-      <c r="AC10">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>3.5610665599601514</v>
-      </c>
       <c r="AD10">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+        <f>'Table 2'!$R9/'Table 3'!P10</f>
+        <v>3.561066559960151</v>
+      </c>
+      <c r="AE10">
+        <f>'Table 2'!$R9/'Table 3'!Q10</f>
         <v>5.8893418007387259</v>
       </c>
-      <c r="AE10">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>0.84930744648053513</v>
-      </c>
       <c r="AF10">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>3.2871402006510251</v>
+        <f>'Table 2'!$R9/'Table 3'!R10</f>
+        <v>0.84930744648053524</v>
       </c>
       <c r="AG10">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>4.3827935165605867</v>
+        <f>'Table 2'!$R9/'Table 3'!S10</f>
+        <v>3.2871402006510246</v>
       </c>
       <c r="AH10">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+        <f>'Table 2'!$R9/'Table 3'!T10</f>
+        <v>4.3827935165605858</v>
+      </c>
+      <c r="AI10">
+        <f>'Table 2'!$R9/'Table 3'!U10</f>
         <v>3.698030825475692</v>
       </c>
-      <c r="AI10">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
+      <c r="AJ10">
+        <f>'Table 2'!$R9/'Table 3'!V10</f>
         <v>2.7393244013060243</v>
       </c>
-      <c r="AJ10">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C9,'Table 2'!$M9,'Table 2'!$N9,'Table 2'!$E9)</f>
-        <v>3.0132073261760319</v>
-      </c>
-      <c r="AL10">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X10</f>
-        <v>2.9996015675478702</v>
+      <c r="AK10">
+        <f>'Table 2'!$R9/'Table 3'!W10</f>
+        <v>3.0132073261760315</v>
       </c>
       <c r="AM10">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y10</f>
-        <v>1.3175462629372974</v>
+        <v>2.9996015675478702</v>
       </c>
       <c r="AN10">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z10</f>
-        <v>0.18626592836180667</v>
+        <v>1.3175462629372974</v>
       </c>
       <c r="AO10">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA10</f>
-        <v>0.19229297281352595</v>
+        <v>0.18626592836180667</v>
       </c>
       <c r="AP10">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB10</f>
-        <v>1.0245185061130821E-2</v>
+        <v>0.19229297281352595</v>
       </c>
       <c r="AQ10">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC10</f>
-        <v>1.5668692863824666E-2</v>
+        <v>1.0245185061130821E-2</v>
       </c>
       <c r="AR10">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD10</f>
-        <v>0.21201630482659412</v>
+        <v>1.5668692863824666E-2</v>
       </c>
       <c r="AS10">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE10</f>
-        <v>1.1040996804246956E-2</v>
+        <v>0.21201630482659412</v>
       </c>
       <c r="AT10">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF10</f>
-        <v>1.590975857115096</v>
+        <v>1.1040996804246958E-2</v>
       </c>
       <c r="AU10">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG10</f>
-        <v>0.35062348132484694</v>
+        <v>1.5909758571150958</v>
       </c>
       <c r="AV10">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH10</f>
-        <v>1.0724289393879505E-2</v>
+        <v>0.35062348132484689</v>
       </c>
       <c r="AW10">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI10</f>
-        <v>2.7393244013060243E-4</v>
+        <v>1.0724289393879505E-2</v>
       </c>
       <c r="AX10">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ10</f>
-        <v>0.44896789160022876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+        <v>2.7393244013060243E-4</v>
+      </c>
+      <c r="AY10">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK10</f>
+        <v>0.44896789160022865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3258,168 +3297,173 @@
       <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <f>_xll.Vss('Table 2'!C10,'Table 2'!M10,'Table 2'!N10,'Table 2'!E10)</f>
         <v>7.5727045197839864</v>
       </c>
-      <c r="J11">
-        <f>_xll.fut(J$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>4.0423198270820701E-6</v>
-      </c>
+      <c r="I11" s="6">
+        <f>SUM(AM11:AY11)+'Table 1'!$G$18</f>
+        <v>7.678477336628406</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11">
         <f>_xll.fut(K$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>8.7960458268192547E-6</v>
+        <v>3.9677387039619571E-6</v>
       </c>
       <c r="L11">
         <f>_xll.fut(L$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>9.5721339377046526E-6</v>
+        <v>8.6337580799702613E-6</v>
       </c>
       <c r="M11">
         <f>_xll.fut(M$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>1.2053777865324448E-5</v>
+        <v>9.3955273033291906E-6</v>
       </c>
       <c r="N11">
         <f>_xll.fut(N$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>3.8287678153025348E-5</v>
+        <v>1.183138470261293E-5</v>
       </c>
       <c r="O11">
         <f>_xll.fut(O$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.5034522433174617E-5</v>
+        <v>3.7581267438271166E-5</v>
       </c>
       <c r="P11">
         <f>_xll.fut(P$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>1.513727383577008E-5</v>
+        <v>2.4572633498179192E-5</v>
       </c>
       <c r="Q11">
         <f>_xll.fut(Q$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>1.0497688223236285E-4</v>
+        <v>1.4857989926544281E-5</v>
       </c>
       <c r="R11">
         <f>_xll.fut(R$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.7120726412190187E-5</v>
+        <v>1.0304005038494592E-4</v>
       </c>
       <c r="S11">
         <f>_xll.fut(S$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.0340659277234617E-5</v>
+        <v>2.6620346847440474E-5</v>
       </c>
       <c r="T11">
         <f>_xll.fut(T$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.4107317451564315E-5</v>
+        <v>1.9965372491726909E-5</v>
       </c>
       <c r="U11">
         <f>_xll.fut(U$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>3.2544672219084005E-5</v>
+        <v>2.3662535522409388E-5</v>
       </c>
       <c r="V11">
         <f>_xll.fut(V$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.9586265231503052E-5</v>
-      </c>
-      <c r="X11">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+        <v>3.1944220421724043E-5</v>
+      </c>
+      <c r="W11">
+        <f>_xll.fut(W$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+        <v>2.9040396278949671E-5</v>
+      </c>
+      <c r="Y11">
+        <f>'Table 2'!$R10/'Table 3'!K11</f>
         <v>22.056210726650821</v>
       </c>
-      <c r="Y11">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>10.136174786492836</v>
-      </c>
       <c r="Z11">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+        <f>'Table 2'!$R10/'Table 3'!L11</f>
+        <v>10.136174786492834</v>
+      </c>
+      <c r="AA11">
+        <f>'Table 2'!$R10/'Table 3'!M11</f>
         <v>9.3143554520738903</v>
       </c>
-      <c r="AA11">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>7.3967065700725865</v>
-      </c>
       <c r="AB11">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+        <f>'Table 2'!$R10/'Table 3'!N11</f>
+        <v>7.3967065700725856</v>
+      </c>
+      <c r="AC11">
+        <f>'Table 2'!$R10/'Table 3'!O11</f>
         <v>2.328641020599362</v>
       </c>
-      <c r="AC11">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+      <c r="AD11">
+        <f>'Table 2'!$R10/'Table 3'!P11</f>
         <v>3.5614123724002962</v>
       </c>
-      <c r="AD11">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+      <c r="AE11">
+        <f>'Table 2'!$R10/'Table 3'!Q11</f>
         <v>5.8899811748107345</v>
       </c>
-      <c r="AE11">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>0.84931325864004992</v>
-      </c>
       <c r="AF11">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
+        <f>'Table 2'!$R10/'Table 3'!R11</f>
+        <v>0.84931325864004981</v>
+      </c>
+      <c r="AG11">
+        <f>'Table 2'!$R10/'Table 3'!S11</f>
         <v>3.2874583289393797</v>
       </c>
-      <c r="AG11">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>4.3832531048011454</v>
-      </c>
       <c r="AH11">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>3.6983898399220445</v>
+        <f>'Table 2'!$R10/'Table 3'!T11</f>
+        <v>4.3832531048011445</v>
       </c>
       <c r="AI11">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>2.7395653989213935</v>
+        <f>'Table 2'!$R10/'Table 3'!U11</f>
+        <v>3.6983898399220441</v>
       </c>
       <c r="AJ11">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C10,'Table 2'!$M10,'Table 2'!$N10,'Table 2'!$E10)</f>
-        <v>3.013501610730724</v>
-      </c>
-      <c r="AL11">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X11</f>
-        <v>3.2863753982709722</v>
+        <f>'Table 2'!$R10/'Table 3'!V11</f>
+        <v>2.7395653989213931</v>
+      </c>
+      <c r="AK11">
+        <f>'Table 2'!$R10/'Table 3'!W11</f>
+        <v>3.0135016107307235</v>
       </c>
       <c r="AM11">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y11</f>
-        <v>1.3177027222440687</v>
+        <v>3.2863753982709722</v>
       </c>
       <c r="AN11">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z11</f>
-        <v>0.1862871090414778</v>
+        <v>1.3177027222440685</v>
       </c>
       <c r="AO11">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA11</f>
-        <v>0.19231437082188724</v>
+        <v>0.1862871090414778</v>
       </c>
       <c r="AP11">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB11</f>
-        <v>1.0246020490637194E-2</v>
+        <v>0.19231437082188721</v>
       </c>
       <c r="AQ11">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC11</f>
-        <v>1.5670214438561304E-2</v>
+        <v>1.0246020490637194E-2</v>
       </c>
       <c r="AR11">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD11</f>
-        <v>0.21203932229318642</v>
+        <v>1.5670214438561304E-2</v>
       </c>
       <c r="AS11">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE11</f>
-        <v>1.1041072362320648E-2</v>
+        <v>0.21203932229318642</v>
       </c>
       <c r="AT11">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF11</f>
-        <v>1.5911298312066597</v>
+        <v>1.1041072362320646E-2</v>
       </c>
       <c r="AU11">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG11</f>
-        <v>0.35066024838409166</v>
+        <v>1.5911298312066597</v>
       </c>
       <c r="AV11">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH11</f>
-        <v>1.0725330535773929E-2</v>
+        <v>0.35066024838409154</v>
       </c>
       <c r="AW11">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI11</f>
-        <v>2.7395653989213935E-4</v>
+        <v>1.0725330535773927E-2</v>
       </c>
       <c r="AX11">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ11</f>
-        <v>0.44901173999887783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+        <v>2.739565398921393E-4</v>
+      </c>
+      <c r="AY11">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK11</f>
+        <v>0.44901173999887778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3438,173 +3482,178 @@
       <c r="F12">
         <v>12.9</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <f>_xll.Vss('Table 2'!C11,'Table 2'!M11,'Table 2'!N11,'Table 2'!E11)</f>
         <v>7.8056116771249719</v>
       </c>
-      <c r="J12">
-        <f>_xll.fut(J$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.836353528799049E-6</v>
-      </c>
+      <c r="I12" s="6">
+        <f>SUM(AM12:AY12)+'Table 1'!$G$18</f>
+        <v>7.9113885269960322</v>
+      </c>
+      <c r="J12" s="6"/>
       <c r="K12">
         <f>_xll.fut(K$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>4.2787197776806463E-6</v>
+        <v>1.8349638031825609E-6</v>
       </c>
       <c r="L12">
         <f>_xll.fut(L$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>4.656245930041225E-6</v>
+        <v>4.2754817048436004E-6</v>
       </c>
       <c r="M12">
         <f>_xll.fut(M$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>5.8634159674147951E-6</v>
+        <v>4.652722150908196E-6</v>
       </c>
       <c r="N12">
         <f>_xll.fut(N$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.8624780791715065E-5</v>
+        <v>5.8589786195717733E-6</v>
       </c>
       <c r="O12">
         <f>_xll.fut(O$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.217780549127252E-5</v>
+        <v>1.8610685828756243E-5</v>
       </c>
       <c r="P12">
         <f>_xll.fut(P$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>7.3633528196497587E-6</v>
+        <v>1.216858950536435E-5</v>
       </c>
       <c r="Q12">
         <f>_xll.fut(Q$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>5.1066655056206132E-5</v>
+        <v>7.3577803414334317E-6</v>
       </c>
       <c r="R12">
         <f>_xll.fut(R$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.3192621142854469E-5</v>
+        <v>5.1028008555101092E-5</v>
       </c>
       <c r="S12">
         <f>_xll.fut(S$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>9.8944929430074363E-6</v>
+        <v>1.3182637159235127E-5</v>
       </c>
       <c r="T12">
         <f>_xll.fut(T$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.1726775552479914E-5</v>
+        <v>9.8870049347947404E-6</v>
       </c>
       <c r="U12">
         <f>_xll.fut(U$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.583109817049358E-5</v>
+        <v>1.1717900899463211E-5</v>
       </c>
       <c r="V12">
         <f>_xll.fut(V$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>1.4391954652832265E-5</v>
-      </c>
-      <c r="X12">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>23.618329502046286</v>
+        <v>1.5819117425871349E-5</v>
+      </c>
+      <c r="W12">
+        <f>_xll.fut(W$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+        <v>1.4381063031072779E-5</v>
       </c>
       <c r="Y12">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+        <f>'Table 2'!$R11/'Table 3'!K12</f>
+        <v>23.61832950204629</v>
+      </c>
+      <c r="Z12">
+        <f>'Table 2'!$R11/'Table 3'!L12</f>
         <v>10.136584066959326</v>
       </c>
-      <c r="Z12">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+      <c r="AA12">
+        <f>'Table 2'!$R11/'Table 3'!M12</f>
         <v>9.3147147674473008</v>
       </c>
-      <c r="AA12">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>7.3969854716864152</v>
-      </c>
       <c r="AB12">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+        <f>'Table 2'!$R11/'Table 3'!N12</f>
+        <v>7.3969854716864161</v>
+      </c>
+      <c r="AC12">
+        <f>'Table 2'!$R11/'Table 3'!O12</f>
         <v>2.3287040642494197</v>
       </c>
-      <c r="AC12">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>3.5615286150287551</v>
-      </c>
       <c r="AD12">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+        <f>'Table 2'!$R11/'Table 3'!P12</f>
+        <v>3.5615286150287555</v>
+      </c>
+      <c r="AE12">
+        <f>'Table 2'!$R11/'Table 3'!Q12</f>
         <v>5.8901975482799669</v>
       </c>
-      <c r="AE12">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>0.8493135623957504</v>
-      </c>
       <c r="AF12">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
+        <f>'Table 2'!$R11/'Table 3'!R12</f>
+        <v>0.84931356239575051</v>
+      </c>
+      <c r="AG12">
+        <f>'Table 2'!$R11/'Table 3'!S12</f>
         <v>3.2875652424016431</v>
       </c>
-      <c r="AG12">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>4.3834083237254369</v>
-      </c>
       <c r="AH12">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>3.6985105182003251</v>
+        <f>'Table 2'!$R11/'Table 3'!T12</f>
+        <v>4.3834083237254378</v>
       </c>
       <c r="AI12">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>2.7396458703198827</v>
+        <f>'Table 2'!$R11/'Table 3'!U12</f>
+        <v>3.6985105182003255</v>
       </c>
       <c r="AJ12">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C11,'Table 2'!$M11,'Table 2'!$N11,'Table 2'!$E11)</f>
-        <v>3.0136005686264493</v>
-      </c>
-      <c r="AL12">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X12</f>
-        <v>3.5191310958048967</v>
+        <f>'Table 2'!$R11/'Table 3'!V12</f>
+        <v>2.7396458703198832</v>
+      </c>
+      <c r="AK12">
+        <f>'Table 2'!$R11/'Table 3'!W12</f>
+        <v>3.0136005686264498</v>
       </c>
       <c r="AM12">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y12</f>
-        <v>1.3177559287047125</v>
+        <v>3.5191310958048971</v>
       </c>
       <c r="AN12">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z12</f>
-        <v>0.18629429534894601</v>
+        <v>1.3177559287047125</v>
       </c>
       <c r="AO12">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA12</f>
-        <v>0.19232162226384678</v>
+        <v>0.18629429534894601</v>
       </c>
       <c r="AP12">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB12</f>
-        <v>1.0246297882697448E-2</v>
+        <v>0.1923216222638468</v>
       </c>
       <c r="AQ12">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC12</f>
-        <v>1.5670725906126524E-2</v>
+        <v>1.0246297882697448E-2</v>
       </c>
       <c r="AR12">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD12</f>
-        <v>0.2120471117380788</v>
+        <v>1.5670725906126524E-2</v>
       </c>
       <c r="AS12">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE12</f>
-        <v>1.1041076311144754E-2</v>
+        <v>0.2120471117380788</v>
       </c>
       <c r="AT12">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF12</f>
-        <v>1.5911815773223952</v>
+        <v>1.1041076311144756E-2</v>
       </c>
       <c r="AU12">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG12</f>
-        <v>0.35067266589803497</v>
+        <v>1.5911815773223952</v>
       </c>
       <c r="AV12">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH12</f>
-        <v>1.0725680502780941E-2</v>
+        <v>0.35067266589803503</v>
       </c>
       <c r="AW12">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI12</f>
-        <v>2.7396458703198831E-4</v>
+        <v>1.0725680502780943E-2</v>
       </c>
       <c r="AX12">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ12</f>
-        <v>0.4490264847253409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+        <v>2.7396458703198831E-4</v>
+      </c>
+      <c r="AY12">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK12</f>
+        <v>0.44902648472534101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3623,168 +3672,173 @@
       <c r="F14">
         <v>62</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <f>_xll.Vss('Table 2'!C13,'Table 2'!M13,'Table 2'!N13,'Table 2'!E13)</f>
         <v>36.208702171373758</v>
       </c>
-      <c r="J14">
-        <f>_xll.fut(J$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>1.6122613130258711E-6</v>
-      </c>
+      <c r="I14" s="6">
+        <f>SUM(AM14:AY14)+'Table 1'!$G$18</f>
+        <v>36.314472361675428</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14">
         <f>_xll.fut(K$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>3.4079023742799634E-5</v>
+        <v>6.4570073648454958E-7</v>
       </c>
       <c r="L14">
         <f>_xll.fut(L$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>3.7085492377905234E-5</v>
+        <v>1.3648439338969039E-5</v>
       </c>
       <c r="M14">
         <f>_xll.fut(M$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>4.6699943052324126E-5</v>
+        <v>1.4852511530133892E-5</v>
       </c>
       <c r="N14">
         <f>_xll.fut(N$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>1.4832909750480197E-4</v>
+        <v>1.8703039872661352E-5</v>
       </c>
       <c r="O14">
         <f>_xll.fut(O$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>9.6988482312193846E-5</v>
+        <v>5.9404890960999147E-5</v>
       </c>
       <c r="P14">
         <f>_xll.fut(P$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>5.8646010826672953E-5</v>
+        <v>3.8843290447729894E-5</v>
       </c>
       <c r="Q14">
         <f>_xll.fut(Q$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>4.066268657136814E-4</v>
+        <v>2.3487366518516686E-5</v>
       </c>
       <c r="R14">
         <f>_xll.fut(R$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>1.0507076242388365E-4</v>
+        <v>1.6285155796051464E-4</v>
       </c>
       <c r="S14">
         <f>_xll.fut(S$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>7.8804789934380155E-5</v>
+        <v>4.2080193906511077E-5</v>
       </c>
       <c r="T14">
         <f>_xll.fut(T$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>9.3396309590730125E-5</v>
+        <v>3.1560833524957859E-5</v>
       </c>
       <c r="U14">
         <f>_xll.fut(U$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>1.2608192096833491E-4</v>
+        <v>3.7404647373502871E-5</v>
       </c>
       <c r="V14">
         <f>_xll.fut(V$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>1.1462292363328165E-4</v>
-      </c>
-      <c r="X14">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>214.2444359691176</v>
+        <v>5.0495033633133052E-5</v>
+      </c>
+      <c r="W14">
+        <f>_xll.fut(W$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
+        <v>4.5905775701531459E-5</v>
       </c>
       <c r="Y14">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
+        <f>'Table 2'!$R13/'Table 3'!K14</f>
+        <v>214.24443596911757</v>
+      </c>
+      <c r="Z14">
+        <f>'Table 2'!$R13/'Table 3'!L14</f>
         <v>10.135795504325094</v>
       </c>
-      <c r="Z14">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>9.3141008382525783</v>
-      </c>
       <c r="AA14">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>7.3965404038510112</v>
+        <f>'Table 2'!$R13/'Table 3'!M14</f>
+        <v>9.3141008382525765</v>
       </c>
       <c r="AB14">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>2.3287272791022966</v>
+        <f>'Table 2'!$R13/'Table 3'!N14</f>
+        <v>7.3965404038510094</v>
       </c>
       <c r="AC14">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>3.5614333517685033</v>
+        <f>'Table 2'!$R13/'Table 3'!O14</f>
+        <v>2.3287272791022962</v>
       </c>
       <c r="AD14">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>5.8898808422781279</v>
+        <f>'Table 2'!$R13/'Table 3'!P14</f>
+        <v>3.5614333517685028</v>
       </c>
       <c r="AE14">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
+        <f>'Table 2'!$R13/'Table 3'!Q14</f>
+        <v>5.889880842278127</v>
+      </c>
+      <c r="AF14">
+        <f>'Table 2'!$R13/'Table 3'!R14</f>
         <v>0.84947170187047172</v>
       </c>
-      <c r="AF14">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>3.2874798628618276</v>
-      </c>
       <c r="AG14">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>4.3832109181647754</v>
+        <f>'Table 2'!$R13/'Table 3'!S14</f>
+        <v>3.2874798628618271</v>
       </c>
       <c r="AH14">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
-        <v>3.6984118233119196</v>
+        <f>'Table 2'!$R13/'Table 3'!T14</f>
+        <v>4.3832109181647745</v>
       </c>
       <c r="AI14">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
+        <f>'Table 2'!$R13/'Table 3'!U14</f>
+        <v>3.6984118233119192</v>
+      </c>
+      <c r="AJ14">
+        <f>'Table 2'!$R13/'Table 3'!V14</f>
         <v>2.7396316061111361</v>
       </c>
-      <c r="AJ14">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C13,'Table 2'!$M13,'Table 2'!$N13,'Table 2'!$E13)</f>
+      <c r="AK14">
+        <f>'Table 2'!$R13/'Table 3'!W14</f>
         <v>3.0135160114146826</v>
-      </c>
-      <c r="AL14">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X14</f>
-        <v>31.922420959398522</v>
       </c>
       <c r="AM14">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y14</f>
-        <v>1.3176534155622621</v>
+        <v>31.922420959398519</v>
       </c>
       <c r="AN14">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z14</f>
-        <v>0.18628201676505157</v>
+        <v>1.3176534155622621</v>
       </c>
       <c r="AO14">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA14</f>
-        <v>0.19231005050012628</v>
+        <v>0.18628201676505154</v>
       </c>
       <c r="AP14">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB14</f>
-        <v>1.0246400028050105E-2</v>
+        <v>0.19231005050012623</v>
       </c>
       <c r="AQ14">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC14</f>
-        <v>1.5670306747781415E-2</v>
+        <v>1.0246400028050103E-2</v>
       </c>
       <c r="AR14">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD14</f>
-        <v>0.2120357103220126</v>
+        <v>1.5670306747781415E-2</v>
       </c>
       <c r="AS14">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE14</f>
-        <v>1.1043132124316133E-2</v>
+        <v>0.21203571032201254</v>
       </c>
       <c r="AT14">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF14</f>
-        <v>1.5911402536251245</v>
+        <v>1.1043132124316133E-2</v>
       </c>
       <c r="AU14">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG14</f>
-        <v>0.35065687345318203</v>
+        <v>1.5911402536251242</v>
       </c>
       <c r="AV14">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH14</f>
-        <v>1.0725394287604566E-2</v>
+        <v>0.35065687345318197</v>
       </c>
       <c r="AW14">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI14</f>
-        <v>2.7396316061111361E-4</v>
+        <v>1.0725394287604564E-2</v>
       </c>
       <c r="AX14">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ14</f>
+        <v>2.7396316061111361E-4</v>
+      </c>
+      <c r="AY14">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK14</f>
         <v>0.44901388570078771</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3803,168 +3857,173 @@
       <c r="F15">
         <v>55</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <f>_xll.Vss('Table 2'!C14,'Table 2'!M14,'Table 2'!N14,'Table 2'!E14)</f>
         <v>35.592591790493131</v>
       </c>
-      <c r="J15">
-        <f>_xll.fut(J$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>6.3139861024813009E-7</v>
-      </c>
+      <c r="I15" s="6">
+        <f>SUM(AM15:AY15)+'Table 1'!$G$18</f>
+        <v>35.698368448423004</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15">
         <f>_xll.fut(K$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>1.3087520420047405E-5</v>
+        <v>2.566576706837127E-7</v>
       </c>
       <c r="L15">
         <f>_xll.fut(L$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>1.4242227294693533E-5</v>
+        <v>5.3199554948574426E-6</v>
       </c>
       <c r="M15">
         <f>_xll.fut(M$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>1.7934611372957802E-5</v>
+        <v>5.7893331145716797E-6</v>
       </c>
       <c r="N15">
         <f>_xll.fut(N$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>5.6967010649927431E-5</v>
+        <v>7.2902529478043061E-6</v>
       </c>
       <c r="O15">
         <f>_xll.fut(O$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>3.7248261476749351E-5</v>
+        <v>2.3156560723943927E-5</v>
       </c>
       <c r="P15">
         <f>_xll.fut(P$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>2.2522471898593487E-5</v>
+        <v>1.5141072331285937E-5</v>
       </c>
       <c r="Q15">
         <f>_xll.fut(Q$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>1.5618777872264086E-4</v>
+        <v>9.1551756397764415E-6</v>
       </c>
       <c r="R15">
         <f>_xll.fut(R$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>4.0352269488502852E-5</v>
+        <v>6.348888139057298E-5</v>
       </c>
       <c r="S15">
         <f>_xll.fut(S$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>3.0264455523566167E-5</v>
+        <v>1.6402822758273983E-5</v>
       </c>
       <c r="T15">
         <f>_xll.fut(T$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>3.5868695247205641E-5</v>
+        <v>1.23022200763742E-5</v>
       </c>
       <c r="U15">
         <f>_xll.fut(U$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>4.8422281793737512E-5</v>
+        <v>1.4580291472282378E-5</v>
       </c>
       <c r="V15">
         <f>_xll.fut(V$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>4.4020697995072848E-5</v>
-      </c>
-      <c r="X15">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+        <v>1.9683207806692865E-5</v>
+      </c>
+      <c r="W15">
+        <f>_xll.fut(W$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+        <v>1.7894004874110408E-5</v>
+      </c>
+      <c r="Y15">
+        <f>'Table 2'!$R14/'Table 3'!K15</f>
         <v>210.10804632089574</v>
       </c>
-      <c r="Y15">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="Z15">
+        <f>'Table 2'!$R14/'Table 3'!L15</f>
         <v>10.136521219539215</v>
       </c>
-      <c r="Z15">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AA15">
+        <f>'Table 2'!$R14/'Table 3'!M15</f>
         <v>9.3146897394617074</v>
       </c>
-      <c r="AA15">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>7.3969781496907068</v>
-      </c>
       <c r="AB15">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+        <f>'Table 2'!$R14/'Table 3'!N15</f>
+        <v>7.3969781496907059</v>
+      </c>
+      <c r="AC15">
+        <f>'Table 2'!$R14/'Table 3'!O15</f>
         <v>2.3287500420935694</v>
       </c>
-      <c r="AC15">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>3.5615602766258481</v>
-      </c>
       <c r="AD15">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
-        <v>5.8902028625573726</v>
+        <f>'Table 2'!$R14/'Table 3'!P15</f>
+        <v>3.5615602766258476</v>
       </c>
       <c r="AE15">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+        <f>'Table 2'!$R14/'Table 3'!Q15</f>
+        <v>5.8902028625573717</v>
+      </c>
+      <c r="AF15">
+        <f>'Table 2'!$R14/'Table 3'!R15</f>
         <v>0.84937457676855188</v>
       </c>
-      <c r="AF15">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AG15">
+        <f>'Table 2'!$R14/'Table 3'!S15</f>
         <v>3.2875952240247921</v>
       </c>
-      <c r="AG15">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AH15">
+        <f>'Table 2'!$R14/'Table 3'!T15</f>
         <v>4.3834235955661862</v>
       </c>
-      <c r="AH15">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AI15">
+        <f>'Table 2'!$R14/'Table 3'!U15</f>
         <v>3.6985434662360173</v>
       </c>
-      <c r="AI15">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AJ15">
+        <f>'Table 2'!$R14/'Table 3'!V15</f>
         <v>2.7396876713505183</v>
       </c>
-      <c r="AJ15">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C14,'Table 2'!$M14,'Table 2'!$N14,'Table 2'!$E14)</f>
+      <c r="AK15">
+        <f>'Table 2'!$R14/'Table 3'!W15</f>
         <v>3.013626191565884</v>
-      </c>
-      <c r="AL15">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X15</f>
-        <v>31.306098901813463</v>
       </c>
       <c r="AM15">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y15</f>
-        <v>1.3177477585400981</v>
+        <v>31.306098901813463</v>
       </c>
       <c r="AN15">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z15</f>
-        <v>0.18629379478923416</v>
+        <v>1.3177477585400981</v>
       </c>
       <c r="AO15">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA15</f>
-        <v>0.19232143189195836</v>
+        <v>0.18629379478923416</v>
       </c>
       <c r="AP15">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB15</f>
-        <v>1.0246500185211706E-2</v>
+        <v>0.19232143189195836</v>
       </c>
       <c r="AQ15">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC15</f>
-        <v>1.5670865217153732E-2</v>
+        <v>1.0246500185211706E-2</v>
       </c>
       <c r="AR15">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD15</f>
-        <v>0.2120473030520654</v>
+        <v>1.5670865217153732E-2</v>
       </c>
       <c r="AS15">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE15</f>
-        <v>1.1041869497991174E-2</v>
+        <v>0.21204730305206537</v>
       </c>
       <c r="AT15">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF15</f>
-        <v>1.5911960884279994</v>
+        <v>1.1041869497991174E-2</v>
       </c>
       <c r="AU15">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG15</f>
-        <v>0.35067388764529489</v>
+        <v>1.5911960884279994</v>
       </c>
       <c r="AV15">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH15</f>
-        <v>1.0725776052084449E-2</v>
+        <v>0.35067388764529489</v>
       </c>
       <c r="AW15">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI15</f>
-        <v>2.7396876713505186E-4</v>
+        <v>1.0725776052084449E-2</v>
       </c>
       <c r="AX15">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ15</f>
+        <v>2.7396876713505186E-4</v>
+      </c>
+      <c r="AY15">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK15</f>
         <v>0.44903030254331672</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3983,168 +4042,173 @@
       <c r="F16">
         <v>24</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <f>_xll.Vss('Table 2'!C15,'Table 2'!M15,'Table 2'!N15,'Table 2'!E15)</f>
         <v>27.539586982389419</v>
       </c>
-      <c r="J16">
-        <f>_xll.fut(J$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>9.8752093608360401E-6</v>
-      </c>
+      <c r="I16" s="6">
+        <f>SUM(AM16:AY16)+'Table 1'!$G$18</f>
+        <v>27.645310205981186</v>
+      </c>
+      <c r="J16" s="6"/>
       <c r="K16">
         <f>_xll.fut(K$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>1.5213722440603097E-4</v>
+        <v>4.5960042092113441E-6</v>
       </c>
       <c r="L16">
         <f>_xll.fut(L$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>1.6555105218785869E-4</v>
+        <v>7.0805924026369469E-5</v>
       </c>
       <c r="M16">
         <f>_xll.fut(M$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>2.0846558549908963E-4</v>
+        <v>7.7048830550601057E-5</v>
       </c>
       <c r="N16">
         <f>_xll.fut(N$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>6.6194777715809035E-4</v>
+        <v>9.7021609711817728E-5</v>
       </c>
       <c r="O16">
         <f>_xll.fut(O$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>4.3289312458190182E-4</v>
+        <v>3.0807597681545377E-4</v>
       </c>
       <c r="P16">
         <f>_xll.fut(P$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>2.6178543705153759E-4</v>
+        <v>2.014720447960845E-4</v>
       </c>
       <c r="Q16">
         <f>_xll.fut(Q$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>1.8133871475962777E-3</v>
+        <v>1.2183711014479569E-4</v>
       </c>
       <c r="R16">
         <f>_xll.fut(R$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>4.6896569068684789E-4</v>
+        <v>8.4396539442852447E-4</v>
       </c>
       <c r="S16">
         <f>_xll.fut(S$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>3.517584977685096E-4</v>
+        <v>2.1826051576388894E-4</v>
       </c>
       <c r="T16">
         <f>_xll.fut(T$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>4.168599122227277E-4</v>
+        <v>1.6371131763357979E-4</v>
       </c>
       <c r="U16">
         <f>_xll.fut(U$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>5.6269919044934103E-4</v>
+        <v>1.9401005499947475E-4</v>
       </c>
       <c r="V16">
         <f>_xll.fut(V$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>5.1160438813349868E-4</v>
-      </c>
-      <c r="X16">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+        <v>2.6188486272315755E-4</v>
+      </c>
+      <c r="W16">
+        <f>_xll.fut(W$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+        <v>2.3810491862964303E-4</v>
+      </c>
+      <c r="Y16">
+        <f>'Table 2'!$R15/'Table 3'!K16</f>
         <v>156.07329630432412</v>
       </c>
-      <c r="Y16">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>10.130699325285578</v>
-      </c>
       <c r="Z16">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+        <f>'Table 2'!$R15/'Table 3'!L16</f>
+        <v>10.130699325285576</v>
+      </c>
+      <c r="AA16">
+        <f>'Table 2'!$R15/'Table 3'!M16</f>
         <v>9.3098561215549456</v>
       </c>
-      <c r="AA16">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AB16">
+        <f>'Table 2'!$R15/'Table 3'!N16</f>
         <v>7.3933377202335837</v>
       </c>
-      <c r="AB16">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AC16">
+        <f>'Table 2'!$R15/'Table 3'!O16</f>
         <v>2.3283656654275711</v>
       </c>
-      <c r="AC16">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
-        <v>3.5603625678499276</v>
-      </c>
       <c r="AD16">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+        <f>'Table 2'!$R15/'Table 3'!P16</f>
+        <v>3.5603625678499271</v>
+      </c>
+      <c r="AE16">
+        <f>'Table 2'!$R15/'Table 3'!Q16</f>
         <v>5.8874798155314192</v>
       </c>
-      <c r="AE16">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AF16">
+        <f>'Table 2'!$R15/'Table 3'!R16</f>
         <v>0.84993239236530371</v>
       </c>
-      <c r="AF16">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AG16">
+        <f>'Table 2'!$R15/'Table 3'!S16</f>
         <v>3.2865015655701204</v>
       </c>
-      <c r="AG16">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AH16">
+        <f>'Table 2'!$R15/'Table 3'!T16</f>
         <v>4.3815756731349564</v>
       </c>
-      <c r="AH16">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AI16">
+        <f>'Table 2'!$R15/'Table 3'!U16</f>
         <v>3.6973007752722147</v>
       </c>
-      <c r="AI16">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AJ16">
+        <f>'Table 2'!$R15/'Table 3'!V16</f>
         <v>2.7390415746115342</v>
       </c>
-      <c r="AJ16">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C15,'Table 2'!$M15,'Table 2'!$N15,'Table 2'!$E15)</f>
+      <c r="AK16">
+        <f>'Table 2'!$R15/'Table 3'!W16</f>
         <v>3.0125943255960128</v>
-      </c>
-      <c r="AL16">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X16</f>
-        <v>23.254921149344291</v>
       </c>
       <c r="AM16">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y16</f>
-        <v>1.3169909122871253</v>
+        <v>23.254921149344291</v>
       </c>
       <c r="AN16">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z16</f>
-        <v>0.18619712243109893</v>
+        <v>1.3169909122871248</v>
       </c>
       <c r="AO16">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA16</f>
-        <v>0.19222678072607316</v>
+        <v>0.18619712243109893</v>
       </c>
       <c r="AP16">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB16</f>
-        <v>1.0244808927881313E-2</v>
+        <v>0.19222678072607316</v>
       </c>
       <c r="AQ16">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC16</f>
-        <v>1.5665595298539683E-2</v>
+        <v>1.0244808927881313E-2</v>
       </c>
       <c r="AR16">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD16</f>
-        <v>0.21194927335913108</v>
+        <v>1.566559529853968E-2</v>
       </c>
       <c r="AS16">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE16</f>
-        <v>1.1049121100748948E-2</v>
+        <v>0.21194927335913108</v>
       </c>
       <c r="AT16">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF16</f>
-        <v>1.5906667577359381</v>
+        <v>1.1049121100748948E-2</v>
       </c>
       <c r="AU16">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG16</f>
-        <v>0.35052605385079655</v>
+        <v>1.5906667577359381</v>
       </c>
       <c r="AV16">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH16</f>
-        <v>1.0722172248289422E-2</v>
+        <v>0.35052605385079655</v>
       </c>
       <c r="AW16">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI16</f>
-        <v>2.7390415746115344E-4</v>
+        <v>1.0722172248289422E-2</v>
       </c>
       <c r="AX16">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ16</f>
+        <v>2.7390415746115344E-4</v>
+      </c>
+      <c r="AY16">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK16</f>
         <v>0.44887655451380587</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4163,173 +4227,178 @@
       <c r="F17">
         <v>10</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <f>_xll.Vss('Table 2'!C16,'Table 2'!M16,'Table 2'!N16,'Table 2'!E16)</f>
         <v>27.025903876107154</v>
       </c>
-      <c r="J17">
-        <f>_xll.fut(J$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>3.5026632634575078E-4</v>
-      </c>
+      <c r="I17" s="7">
+        <f>SUM(AM17:AY17)+'Table 1'!$G$18</f>
+        <v>27.130038159911347</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17">
         <f>_xll.fut(K$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>5.38376424535907E-3</v>
+        <v>1.4010811473933851E-4</v>
       </c>
       <c r="L17">
         <f>_xll.fut(L$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>5.8462493648980879E-3</v>
+        <v>2.15353004808613E-3</v>
       </c>
       <c r="M17">
         <f>_xll.fut(M$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>7.3543318915768943E-3</v>
+        <v>2.3385261876512188E-3</v>
       </c>
       <c r="N17">
         <f>_xll.fut(N$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>2.3069402871972448E-2</v>
+        <v>2.9417660191494231E-3</v>
       </c>
       <c r="O17">
         <f>_xll.fut(O$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.5182991584192729E-2</v>
+        <v>9.2278654881708475E-3</v>
       </c>
       <c r="P17">
         <f>_xll.fut(P$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>9.2250384563275552E-3</v>
+        <v>6.0732653040265414E-3</v>
       </c>
       <c r="Q17">
         <f>_xll.fut(Q$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>6.1332374302844536E-2</v>
+        <v>3.6900571059694477E-3</v>
       </c>
       <c r="R17">
         <f>_xll.fut(R$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.6445951977662802E-2</v>
+        <v>2.453322711808904E-2</v>
       </c>
       <c r="S17">
         <f>_xll.fut(S$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.2376699905296124E-2</v>
+        <v>6.5784551735913232E-3</v>
       </c>
       <c r="T17">
         <f>_xll.fut(T$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.4620494130823111E-2</v>
+        <v>4.9507359400397192E-3</v>
       </c>
       <c r="U17">
         <f>_xll.fut(U$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.9662062710554342E-2</v>
+        <v>5.8482637785887189E-3</v>
       </c>
       <c r="V17">
         <f>_xll.fut(V$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>1.7947746879797888E-2</v>
-      </c>
-      <c r="X17">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+        <v>7.8649140127250387E-3</v>
+      </c>
+      <c r="W17">
+        <f>_xll.fut(W$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+        <v>7.1791799268340738E-3</v>
+      </c>
+      <c r="Y17">
+        <f>'Table 2'!$R16/'Table 3'!K17</f>
         <v>152.9751209599012</v>
       </c>
-      <c r="Y17">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+      <c r="Z17">
+        <f>'Table 2'!$R16/'Table 3'!L17</f>
         <v>9.9525222871916075</v>
       </c>
-      <c r="Z17">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+      <c r="AA17">
+        <f>'Table 2'!$R16/'Table 3'!M17</f>
         <v>9.1651981119104207</v>
       </c>
-      <c r="AA17">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>7.2857785630113234</v>
-      </c>
       <c r="AB17">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+        <f>'Table 2'!$R16/'Table 3'!N17</f>
+        <v>7.2857785630113225</v>
+      </c>
+      <c r="AC17">
+        <f>'Table 2'!$R16/'Table 3'!O17</f>
         <v>2.3226450176575444</v>
       </c>
-      <c r="AC17">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>3.5290827465587626</v>
-      </c>
       <c r="AD17">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>5.808326316967162</v>
+        <f>'Table 2'!$R16/'Table 3'!P17</f>
+        <v>3.5290827465587622</v>
       </c>
       <c r="AE17">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+        <f>'Table 2'!$R16/'Table 3'!Q17</f>
+        <v>5.8083263169671611</v>
+      </c>
+      <c r="AF17">
+        <f>'Table 2'!$R16/'Table 3'!R17</f>
         <v>0.87363377416869992</v>
       </c>
-      <c r="AF17">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+      <c r="AG17">
+        <f>'Table 2'!$R16/'Table 3'!S17</f>
         <v>3.2580682294158203</v>
       </c>
-      <c r="AG17">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>4.3292666099137724</v>
-      </c>
       <c r="AH17">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
-        <v>3.6648579152984393</v>
+        <f>'Table 2'!$R16/'Table 3'!T17</f>
+        <v>4.3292666099137715</v>
       </c>
       <c r="AI17">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+        <f>'Table 2'!$R16/'Table 3'!U17</f>
+        <v>3.6648579152984389</v>
+      </c>
+      <c r="AJ17">
+        <f>'Table 2'!$R16/'Table 3'!V17</f>
         <v>2.7251481408488902</v>
       </c>
-      <c r="AJ17">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C16,'Table 2'!$M16,'Table 2'!$N16,'Table 2'!$E16)</f>
+      <c r="AK17">
+        <f>'Table 2'!$R16/'Table 3'!W17</f>
         <v>2.985446251263649</v>
-      </c>
-      <c r="AL17">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X17</f>
-        <v>22.793293023025278</v>
       </c>
       <c r="AM17">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y17</f>
-        <v>1.2938278973349091</v>
+        <v>22.793293023025278</v>
       </c>
       <c r="AN17">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z17</f>
-        <v>0.18330396223820841</v>
+        <v>1.2938278973349091</v>
       </c>
       <c r="AO17">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA17</f>
-        <v>0.18943024263829439</v>
+        <v>0.18330396223820841</v>
       </c>
       <c r="AP17">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB17</f>
-        <v>1.0219638077693195E-2</v>
+        <v>0.18943024263829439</v>
       </c>
       <c r="AQ17">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC17</f>
-        <v>1.5527964084858556E-2</v>
+        <v>1.0219638077693195E-2</v>
       </c>
       <c r="AR17">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD17</f>
-        <v>0.20909974741081783</v>
+        <v>1.5527964084858554E-2</v>
       </c>
       <c r="AS17">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE17</f>
-        <v>1.1357239064193099E-2</v>
+        <v>0.20909974741081777</v>
       </c>
       <c r="AT17">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF17</f>
-        <v>1.576905023037257</v>
+        <v>1.1357239064193099E-2</v>
       </c>
       <c r="AU17">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG17</f>
-        <v>0.34634132879310181</v>
+        <v>1.576905023037257</v>
       </c>
       <c r="AV17">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH17</f>
-        <v>1.0628087954365473E-2</v>
+        <v>0.34634132879310175</v>
       </c>
       <c r="AW17">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI17</f>
-        <v>2.7251481408488903E-4</v>
+        <v>1.0628087954365472E-2</v>
       </c>
       <c r="AX17">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ17</f>
+        <v>2.7251481408488903E-4</v>
+      </c>
+      <c r="AY17">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK17</f>
         <v>0.44483149143828371</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4348,168 +4417,173 @@
       <c r="F19">
         <v>3.9</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <f>_xll.Vss('Table 2'!C18,'Table 2'!M18,'Table 2'!N18,'Table 2'!E18)</f>
         <v>7.6495753800560014</v>
       </c>
-      <c r="J19">
-        <f>_xll.fut(J$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.899900907998381E-4</v>
-      </c>
+      <c r="I19" s="6">
+        <f>SUM(AM19:AY19)+'Table 1'!$G$18</f>
+        <v>7.7543001544950085</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19">
         <f>_xll.fut(K$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>4.3263040309058281E-4</v>
+        <v>4.7366230955329919E-4</v>
       </c>
       <c r="L19">
         <f>_xll.fut(L$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>4.7072245400038576E-4</v>
+        <v>1.0785863359934499E-3</v>
       </c>
       <c r="M19">
         <f>_xll.fut(M$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>5.927122148859336E-4</v>
+        <v>1.1735532299698727E-3</v>
       </c>
       <c r="N19">
         <f>_xll.fut(N$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.8808181126385704E-3</v>
+        <v>1.477684627768818E-3</v>
       </c>
       <c r="O19">
         <f>_xll.fut(O$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.23042078499682E-3</v>
+        <v>4.6890479778791795E-3</v>
       </c>
       <c r="P19">
         <f>_xll.fut(P$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>7.4426712431968493E-4</v>
+        <v>3.0675491984367945E-3</v>
       </c>
       <c r="Q19">
         <f>_xll.fut(Q$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>5.1439366647965537E-3</v>
+        <v>1.8555245883916111E-3</v>
       </c>
       <c r="R19">
         <f>_xll.fut(R$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.3329408163641032E-3</v>
+        <v>1.2824294733404627E-2</v>
       </c>
       <c r="S19">
         <f>_xll.fut(S$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>9.9998219256720042E-4</v>
+        <v>3.3231408170758094E-3</v>
       </c>
       <c r="T19">
         <f>_xll.fut(T$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.1848485649137515E-3</v>
+        <v>2.4930451522472545E-3</v>
       </c>
       <c r="U19">
         <f>_xll.fut(U$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.5990472752409389E-3</v>
+        <v>2.9539335728789385E-3</v>
       </c>
       <c r="V19">
         <f>_xll.fut(V$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>1.4541613067371882E-3</v>
-      </c>
-      <c r="X19">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+        <v>3.9865680482962258E-3</v>
+      </c>
+      <c r="W19">
+        <f>_xll.fut(W$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+        <v>3.625354354600725E-3</v>
+      </c>
+      <c r="Y19">
+        <f>'Table 2'!$R18/'Table 3'!K19</f>
         <v>22.847774853049856</v>
       </c>
-      <c r="Y19">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="Z19">
+        <f>'Table 2'!$R18/'Table 3'!L19</f>
         <v>10.033624053916354</v>
       </c>
-      <c r="Z19">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AA19">
+        <f>'Table 2'!$R18/'Table 3'!M19</f>
         <v>9.2216778316286607</v>
       </c>
-      <c r="AA19">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>7.3237073741437708</v>
-      </c>
       <c r="AB19">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+        <f>'Table 2'!$R18/'Table 3'!N19</f>
+        <v>7.3237073741437717</v>
+      </c>
+      <c r="AC19">
+        <f>'Table 2'!$R18/'Table 3'!O19</f>
         <v>2.3079588556362252</v>
       </c>
-      <c r="AC19">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AD19">
+        <f>'Table 2'!$R18/'Table 3'!P19</f>
         <v>3.5279400932067468</v>
       </c>
-      <c r="AD19">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AE19">
+        <f>'Table 2'!$R18/'Table 3'!Q19</f>
         <v>5.8323828596796581</v>
       </c>
-      <c r="AE19">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AF19">
+        <f>'Table 2'!$R18/'Table 3'!R19</f>
         <v>0.84387719013194418</v>
       </c>
-      <c r="AF19">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AG19">
+        <f>'Table 2'!$R18/'Table 3'!S19</f>
         <v>3.2565968163131576</v>
       </c>
-      <c r="AG19">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
-        <v>4.3409281196909788</v>
-      </c>
       <c r="AH19">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+        <f>'Table 2'!$R18/'Table 3'!T19</f>
+        <v>4.3409281196909797</v>
+      </c>
+      <c r="AI19">
+        <f>'Table 2'!$R18/'Table 3'!U19</f>
         <v>3.6636334359076366</v>
       </c>
-      <c r="AI19">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AJ19">
+        <f>'Table 2'!$R18/'Table 3'!V19</f>
         <v>2.7146482071651916</v>
       </c>
-      <c r="AJ19">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C18,'Table 2'!$M18,'Table 2'!$N18,'Table 2'!$E18)</f>
+      <c r="AK19">
+        <f>'Table 2'!$R18/'Table 3'!W19</f>
         <v>2.9851233138950004</v>
-      </c>
-      <c r="AL19">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X19</f>
-        <v>3.4043184531044286</v>
       </c>
       <c r="AM19">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y19</f>
-        <v>1.3043711270091261</v>
+        <v>3.4043184531044286</v>
       </c>
       <c r="AN19">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z19</f>
-        <v>0.18443355663257321</v>
+        <v>1.3043711270091261</v>
       </c>
       <c r="AO19">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA19</f>
-        <v>0.19041639172773803</v>
+        <v>0.18443355663257321</v>
       </c>
       <c r="AP19">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB19</f>
-        <v>1.0155018964799391E-2</v>
+        <v>0.19041639172773805</v>
       </c>
       <c r="AQ19">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC19</f>
-        <v>1.5522936410109687E-2</v>
+        <v>1.0155018964799391E-2</v>
       </c>
       <c r="AR19">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD19</f>
-        <v>0.20996578294846768</v>
+        <v>1.5522936410109687E-2</v>
       </c>
       <c r="AS19">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE19</f>
-        <v>1.0970403471715275E-2</v>
+        <v>0.20996578294846768</v>
       </c>
       <c r="AT19">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF19</f>
-        <v>1.5761928590955683</v>
+        <v>1.0970403471715275E-2</v>
       </c>
       <c r="AU19">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG19</f>
-        <v>0.3472742495752783</v>
+        <v>1.5761928590955683</v>
       </c>
       <c r="AV19">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH19</f>
-        <v>1.0624536964132146E-2</v>
+        <v>0.34727424957527836</v>
       </c>
       <c r="AW19">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI19</f>
-        <v>2.7146482071651917E-4</v>
+        <v>1.0624536964132146E-2</v>
       </c>
       <c r="AX19">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ19</f>
+        <v>2.7146482071651917E-4</v>
+      </c>
+      <c r="AY19">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK19</f>
         <v>0.44478337377035504</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -4528,173 +4602,178 @@
       <c r="F20">
         <v>0.64</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <f>_xll.Vss('Table 2'!C19,'Table 2'!M19,'Table 2'!N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
         <v>6.9006043822386536</v>
       </c>
-      <c r="J20">
-        <f>_xll.fut(J$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>7.3578827460210909E-3</v>
-      </c>
+      <c r="I20" s="6">
+        <f>SUM(AM20:AY20)+'Table 1'!$G$18</f>
+        <v>6.9921229149312607</v>
+      </c>
+      <c r="J20" s="6"/>
       <c r="K20">
         <f>_xll.fut(K$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>1.7900215851197672E-2</v>
+        <v>7.3578827460210969E-3</v>
       </c>
       <c r="L20">
         <f>_xll.fut(L$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>1.9341566689690493E-2</v>
+        <v>1.7900215851197689E-2</v>
       </c>
       <c r="M20">
         <f>_xll.fut(M$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>2.427293220749625E-2</v>
+        <v>1.9341566689690511E-2</v>
       </c>
       <c r="N20">
         <f>_xll.fut(N$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>7.4016341467930388E-2</v>
+        <v>2.4272932207496271E-2</v>
       </c>
       <c r="O20">
         <f>_xll.fut(O$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>4.9430994108072078E-2</v>
+        <v>7.4016341467930458E-2</v>
       </c>
       <c r="P20">
         <f>_xll.fut(P$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>3.0366752367102925E-2</v>
+        <v>4.943099410807212E-2</v>
       </c>
       <c r="Q20">
         <f>_xll.fut(Q$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>0.18440320743167521</v>
+        <v>3.0366752367102953E-2</v>
       </c>
       <c r="R20">
         <f>_xll.fut(R$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>5.3525990057169258E-2</v>
+        <v>0.18440320743167538</v>
       </c>
       <c r="S20">
         <f>_xll.fut(S$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>4.0595370831592967E-2</v>
+        <v>5.3525990057169306E-2</v>
       </c>
       <c r="T20">
         <f>_xll.fut(T$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>4.7598473704163313E-2</v>
+        <v>4.0595370831593008E-2</v>
       </c>
       <c r="U20">
         <f>_xll.fut(U$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>6.3463478382686553E-2</v>
+        <v>4.7598473704163355E-2</v>
       </c>
       <c r="V20">
         <f>_xll.fut(V$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>5.846310951278675E-2</v>
-      </c>
-      <c r="X20">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+        <v>6.3463478382686608E-2</v>
+      </c>
+      <c r="W20">
+        <f>_xll.fut(W$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+        <v>5.8463109512786805E-2</v>
+      </c>
+      <c r="Y20">
+        <f>'Table 2'!$R19/'Table 3'!K20</f>
         <v>21.147703314572183</v>
       </c>
-      <c r="Y20">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>8.6927622901180062</v>
-      </c>
       <c r="Z20">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+        <f>'Table 2'!$R19/'Table 3'!L20</f>
+        <v>8.6927622901180044</v>
+      </c>
+      <c r="AA20">
+        <f>'Table 2'!$R19/'Table 3'!M20</f>
         <v>8.0449698740900537</v>
       </c>
-      <c r="AA20">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AB20">
+        <f>'Table 2'!$R19/'Table 3'!N20</f>
         <v>6.4105284028358458</v>
       </c>
-      <c r="AB20">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>2.1022698265042274</v>
-      </c>
       <c r="AC20">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+        <f>'Table 2'!$R19/'Table 3'!O20</f>
+        <v>2.1022698265042279</v>
+      </c>
+      <c r="AD20">
+        <f>'Table 2'!$R19/'Table 3'!P20</f>
         <v>3.1478695531808829</v>
       </c>
-      <c r="AD20">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AE20">
+        <f>'Table 2'!$R19/'Table 3'!Q20</f>
         <v>5.1241014994027365</v>
       </c>
-      <c r="AE20">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AF20">
+        <f>'Table 2'!$R19/'Table 3'!R20</f>
         <v>0.84381569878017026</v>
       </c>
-      <c r="AF20">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AG20">
+        <f>'Table 2'!$R19/'Table 3'!S20</f>
         <v>2.9070423764244295</v>
       </c>
-      <c r="AG20">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
-        <v>3.8330065263295401</v>
-      </c>
       <c r="AH20">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+        <f>'Table 2'!$R19/'Table 3'!T20</f>
+        <v>3.8330065263295396</v>
+      </c>
+      <c r="AI20">
+        <f>'Table 2'!$R19/'Table 3'!U20</f>
         <v>3.2690611531657909</v>
       </c>
-      <c r="AI20">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AJ20">
+        <f>'Table 2'!$R19/'Table 3'!V20</f>
         <v>2.4518404175386879</v>
       </c>
-      <c r="AJ20">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C19,'Table 2'!$M19,'Table 2'!$N19,VALUE(RIGHT('Table 2'!$E19, SEARCH(";",'Table 2'!$E19,1)-2)),VALUE(LEFT('Table 2'!$E19,SEARCH(";",'Table 2'!$E19,1)-1)))</f>
+      <c r="AK20">
+        <f>'Table 2'!$R19/'Table 3'!W20</f>
         <v>2.6615471300278881</v>
-      </c>
-      <c r="AL20">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X20</f>
-        <v>3.1510077938712553</v>
       </c>
       <c r="AM20">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y20</f>
-        <v>1.1300590977153409</v>
+        <v>3.1510077938712553</v>
       </c>
       <c r="AN20">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z20</f>
-        <v>0.16089939748180107</v>
+        <v>1.1300590977153406</v>
       </c>
       <c r="AO20">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA20</f>
-        <v>0.16667373847373199</v>
+        <v>0.16089939748180107</v>
       </c>
       <c r="AP20">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB20</f>
-        <v>9.2499872366186009E-3</v>
+        <v>0.16667373847373199</v>
       </c>
       <c r="AQ20">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC20</f>
-        <v>1.3850626033995886E-2</v>
+        <v>9.2499872366186026E-3</v>
       </c>
       <c r="AR20">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD20</f>
-        <v>0.18446765397849851</v>
+        <v>1.3850626033995886E-2</v>
       </c>
       <c r="AS20">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE20</f>
-        <v>1.0969604084142213E-2</v>
+        <v>0.18446765397849851</v>
       </c>
       <c r="AT20">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF20</f>
-        <v>1.4070085101894239</v>
+        <v>1.0969604084142213E-2</v>
       </c>
       <c r="AU20">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG20</f>
-        <v>0.30664052210636322</v>
+        <v>1.4070085101894239</v>
       </c>
       <c r="AV20">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH20</f>
-        <v>9.4802773441807937E-3</v>
+        <v>0.30664052210636317</v>
       </c>
       <c r="AW20">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI20</f>
-        <v>2.4518404175386882E-4</v>
+        <v>9.4802773441807937E-3</v>
       </c>
       <c r="AX20">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ20</f>
+        <v>2.4518404175386882E-4</v>
+      </c>
+      <c r="AY20">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK20</f>
         <v>0.3965705223741553</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4713,175 +4792,179 @@
       <c r="F22">
         <v>29</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <f>_xll.Vss('Table 2'!C21,'Table 2'!M21,'Table 2'!N21,'Table 2'!E21)</f>
         <v>30.93453875390529</v>
       </c>
-      <c r="J22">
-        <f>_xll.fut(J$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>1.2139198277628547E-7</v>
+      <c r="I22" s="7">
+        <f>SUM(AM22:AY22)+'Table 1'!$G$18</f>
+        <v>31.040317585877265</v>
       </c>
       <c r="K22">
         <f>_xll.fut(K$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>2.1417454931947036E-6</v>
+        <v>1.2139198277628547E-7</v>
       </c>
       <c r="L22">
         <f>_xll.fut(L$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>2.3307210458600836E-6</v>
+        <v>2.1417454931947036E-6</v>
       </c>
       <c r="M22">
         <f>_xll.fut(M$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>2.9349808467063506E-6</v>
+        <v>2.3307210458600836E-6</v>
       </c>
       <c r="N22">
         <f>_xll.fut(N$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>9.3228333377584859E-6</v>
+        <v>2.9349808467063506E-6</v>
       </c>
       <c r="O22">
         <f>_xll.fut(O$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>6.0957148079148777E-6</v>
+        <v>9.3228333377584859E-6</v>
       </c>
       <c r="P22">
         <f>_xll.fut(P$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>3.6857882049005836E-6</v>
+        <v>6.0957148079148777E-6</v>
       </c>
       <c r="Q22">
         <f>_xll.fut(Q$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>2.5562283740956712E-5</v>
+        <v>3.6857882049005836E-6</v>
       </c>
       <c r="R22">
         <f>_xll.fut(R$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>6.6036906729108137E-6</v>
+        <v>2.5562283740956712E-5</v>
       </c>
       <c r="S22">
         <f>_xll.fut(S$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>4.9527747913010939E-6</v>
+        <v>6.6036906729108137E-6</v>
       </c>
       <c r="T22">
         <f>_xll.fut(T$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>5.8699475663020853E-6</v>
+        <v>4.9527747913010939E-6</v>
       </c>
       <c r="U22">
         <f>_xll.fut(U$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>7.9244169808229146E-6</v>
+        <v>5.8699475663020853E-6</v>
       </c>
       <c r="V22">
         <f>_xll.fut(V$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+        <v>7.9244169808229146E-6</v>
+      </c>
+      <c r="W22">
+        <f>_xll.fut(W$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
         <v>7.2040272698383345E-6</v>
       </c>
-      <c r="X22">
-        <f>_xll.Kp('Table 3'!X$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="Y22">
+        <f>'Table 2'!$R21/'Table 3'!K22</f>
         <v>178.84552715786805</v>
       </c>
-      <c r="Y22">
-        <f>_xll.Kp('Table 3'!Y$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="Z22">
+        <f>'Table 2'!$R21/'Table 3'!L22</f>
         <v>10.136784796021487</v>
       </c>
-      <c r="Z22">
-        <f>_xll.Kp('Table 3'!Z$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AA22">
+        <f>'Table 2'!$R21/'Table 3'!M22</f>
         <v>9.3148912826468369</v>
       </c>
-      <c r="AA22">
-        <f>_xll.Kp('Table 3'!AA$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>7.3971226002129242</v>
-      </c>
       <c r="AB22">
-        <f>_xll.Kp('Table 3'!AB$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+        <f>'Table 2'!$R21/'Table 3'!N22</f>
+        <v>7.3971226002129251</v>
+      </c>
+      <c r="AC22">
+        <f>'Table 2'!$R21/'Table 3'!O22</f>
         <v>2.3287355212534031</v>
       </c>
-      <c r="AC22">
-        <f>_xll.Kp('Table 3'!AC$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AD22">
+        <f>'Table 2'!$R21/'Table 3'!P22</f>
         <v>3.5615861037616283</v>
       </c>
-      <c r="AD22">
-        <f>_xll.Kp('Table 3'!AD$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AE22">
+        <f>'Table 2'!$R21/'Table 3'!Q22</f>
         <v>5.8903040395803767</v>
       </c>
-      <c r="AE22">
-        <f>_xll.Kp('Table 3'!AE$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AF22">
+        <f>'Table 2'!$R21/'Table 3'!R22</f>
         <v>0.84931430119361717</v>
       </c>
-      <c r="AF22">
-        <f>_xll.Kp('Table 3'!AF$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AG22">
+        <f>'Table 2'!$R21/'Table 3'!S22</f>
         <v>3.2876181256373065</v>
       </c>
-      <c r="AG22">
-        <f>_xll.Kp('Table 3'!AG$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AH22">
+        <f>'Table 2'!$R21/'Table 3'!T22</f>
         <v>4.3834848276354368</v>
       </c>
-      <c r="AH22">
-        <f>_xll.Kp('Table 3'!AH$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+      <c r="AI22">
+        <f>'Table 2'!$R21/'Table 3'!U22</f>
         <v>3.6985702013758548</v>
       </c>
-      <c r="AI22">
-        <f>_xll.Kp('Table 3'!AI$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
-        <v>2.7396858601588994</v>
-      </c>
       <c r="AJ22">
-        <f>_xll.Kp('Table 3'!AJ$3,'Table 2'!$C21,'Table 2'!$M21,'Table 2'!$N21,'Table 2'!$E21)</f>
+        <f>'Table 2'!$R21/'Table 3'!V22</f>
+        <v>2.7396858601588989</v>
+      </c>
+      <c r="AK22">
+        <f>'Table 2'!$R21/'Table 3'!W22</f>
         <v>3.0136494962005904</v>
-      </c>
-      <c r="AL22">
-        <f>VLOOKUP(AL$3, 'Table 1'!$A$5:$G$17,7)*X22</f>
-        <v>26.647983546522337</v>
       </c>
       <c r="AM22">
         <f>VLOOKUP(AM$3, 'Table 1'!$A$5:$G$17,7)*Y22</f>
-        <v>1.3177820234827935</v>
+        <v>26.647983546522337</v>
       </c>
       <c r="AN22">
         <f>VLOOKUP(AN$3, 'Table 1'!$A$5:$G$17,7)*Z22</f>
-        <v>0.18629782565293673</v>
+        <v>1.3177820234827935</v>
       </c>
       <c r="AO22">
         <f>VLOOKUP(AO$3, 'Table 1'!$A$5:$G$17,7)*AA22</f>
-        <v>0.19232518760553602</v>
+        <v>0.18629782565293673</v>
       </c>
       <c r="AP22">
         <f>VLOOKUP(AP$3, 'Table 1'!$A$5:$G$17,7)*AB22</f>
-        <v>1.0246436293514974E-2</v>
+        <v>0.19232518760553605</v>
       </c>
       <c r="AQ22">
         <f>VLOOKUP(AQ$3, 'Table 1'!$A$5:$G$17,7)*AC22</f>
-        <v>1.5670978856551165E-2</v>
+        <v>1.0246436293514974E-2</v>
       </c>
       <c r="AR22">
         <f>VLOOKUP(AR$3, 'Table 1'!$A$5:$G$17,7)*AD22</f>
-        <v>0.21205094542489356</v>
+        <v>1.5670978856551165E-2</v>
       </c>
       <c r="AS22">
         <f>VLOOKUP(AS$3, 'Table 1'!$A$5:$G$17,7)*AE22</f>
-        <v>1.1041085915517022E-2</v>
+        <v>0.21205094542489356</v>
       </c>
       <c r="AT22">
         <f>VLOOKUP(AT$3, 'Table 1'!$A$5:$G$17,7)*AF22</f>
-        <v>1.5912071728084562</v>
+        <v>1.1041085915517022E-2</v>
       </c>
       <c r="AU22">
         <f>VLOOKUP(AU$3, 'Table 1'!$A$5:$G$17,7)*AG22</f>
-        <v>0.35067878621083493</v>
+        <v>1.5912071728084562</v>
       </c>
       <c r="AV22">
         <f>VLOOKUP(AV$3, 'Table 1'!$A$5:$G$17,7)*AH22</f>
-        <v>1.0725853583989978E-2</v>
+        <v>0.35067878621083493</v>
       </c>
       <c r="AW22">
         <f>VLOOKUP(AW$3, 'Table 1'!$A$5:$G$17,7)*AI22</f>
-        <v>2.7396858601588992E-4</v>
+        <v>1.0725853583989978E-2</v>
       </c>
       <c r="AX22">
         <f>VLOOKUP(AX$3, 'Table 1'!$A$5:$G$17,7)*AJ22</f>
+        <v>2.7396858601588992E-4</v>
+      </c>
+      <c r="AY22">
+        <f>VLOOKUP(AY$3, 'Table 1'!$A$5:$G$17,7)*AK22</f>
         <v>0.44903377493388796</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AL2:AX2"/>
+    <mergeCell ref="AM2:AY2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="X2:AJ2"/>
+    <mergeCell ref="K2:W2"/>
+    <mergeCell ref="Y2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
